--- a/release-branch/StructureDefinition-bc-metadata-parameters-out.xlsx
+++ b/release-branch/StructureDefinition-bc-metadata-parameters-out.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AL$82</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AL$73</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2804" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2501" uniqueCount="231">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-27T22:56:13+00:00</t>
+    <t>2024-10-01T20:52:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -534,32 +534,86 @@
     <t>Parameters.parameter:messageId.part</t>
   </si>
   <si>
-    <t>Parameters.parameter:messageDateTime</t>
-  </si>
-  <si>
-    <t>messageDateTime</t>
-  </si>
-  <si>
-    <t>The messageDateTime is deprecated. To be removed in future releases.</t>
-  </si>
-  <si>
-    <t>Parameters.parameter:messageDateTime.id</t>
-  </si>
-  <si>
-    <t>Parameters.parameter:messageDateTime.extension</t>
-  </si>
-  <si>
-    <t>Parameters.parameter:messageDateTime.modifierExtension</t>
-  </si>
-  <si>
-    <t>Parameters.parameter:messageDateTime.name</t>
-  </si>
-  <si>
-    <t>Parameters.parameter:messageDateTime.value[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dateTime
+    <t>Parameters.parameter:identifiersOnly</t>
+  </si>
+  <si>
+    <t>identifiersOnly</t>
+  </si>
+  <si>
+    <t>Parameters.parameter:identifiersOnly.id</t>
+  </si>
+  <si>
+    <t>Parameters.parameter:identifiersOnly.extension</t>
+  </si>
+  <si>
+    <t>Parameters.parameter:identifiersOnly.modifierExtension</t>
+  </si>
+  <si>
+    <t>Parameters.parameter:identifiersOnly.name</t>
+  </si>
+  <si>
+    <t>Parameters.parameter:identifiersOnly.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
 </t>
+  </si>
+  <si>
+    <t>Parameters.parameter:identifiersOnly.resource</t>
+  </si>
+  <si>
+    <t>Parameters.parameter:identifiersOnly.part</t>
+  </si>
+  <si>
+    <t>Parameters.parameter:history</t>
+  </si>
+  <si>
+    <t>history</t>
+  </si>
+  <si>
+    <t>Parameters.parameter:history.id</t>
+  </si>
+  <si>
+    <t>Parameters.parameter:history.extension</t>
+  </si>
+  <si>
+    <t>Parameters.parameter:history.modifierExtension</t>
+  </si>
+  <si>
+    <t>Parameters.parameter:history.name</t>
+  </si>
+  <si>
+    <t>Parameters.parameter:history.value[x]</t>
+  </si>
+  <si>
+    <t>Parameters.parameter:history.resource</t>
+  </si>
+  <si>
+    <t>Parameters.parameter:history.part</t>
+  </si>
+  <si>
+    <t>Parameters.parameter:requestMessageId</t>
+  </si>
+  <si>
+    <t>requestMessageId</t>
+  </si>
+  <si>
+    <t>The messageID coming from the request</t>
+  </si>
+  <si>
+    <t>Parameters.parameter:requestMessageId.id</t>
+  </si>
+  <si>
+    <t>Parameters.parameter:requestMessageId.extension</t>
+  </si>
+  <si>
+    <t>Parameters.parameter:requestMessageId.modifierExtension</t>
+  </si>
+  <si>
+    <t>Parameters.parameter:requestMessageId.name</t>
+  </si>
+  <si>
+    <t>Parameters.parameter:requestMessageId.value[x]</t>
   </si>
   <si>
     <t xml:space="preserve">type:$this}
@@ -567,100 +621,6 @@
   </si>
   <si>
     <t>closed</t>
-  </si>
-  <si>
-    <t>Parameters.parameter:messageDateTime.value[x]:valueDateTime</t>
-  </si>
-  <si>
-    <t>valueDateTime</t>
-  </si>
-  <si>
-    <t>Parameters.parameter:messageDateTime.resource</t>
-  </si>
-  <si>
-    <t>Parameters.parameter:messageDateTime.part</t>
-  </si>
-  <si>
-    <t>Parameters.parameter:identifiersOnly</t>
-  </si>
-  <si>
-    <t>identifiersOnly</t>
-  </si>
-  <si>
-    <t>Parameters.parameter:identifiersOnly.id</t>
-  </si>
-  <si>
-    <t>Parameters.parameter:identifiersOnly.extension</t>
-  </si>
-  <si>
-    <t>Parameters.parameter:identifiersOnly.modifierExtension</t>
-  </si>
-  <si>
-    <t>Parameters.parameter:identifiersOnly.name</t>
-  </si>
-  <si>
-    <t>Parameters.parameter:identifiersOnly.value[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
-</t>
-  </si>
-  <si>
-    <t>Parameters.parameter:identifiersOnly.resource</t>
-  </si>
-  <si>
-    <t>Parameters.parameter:identifiersOnly.part</t>
-  </si>
-  <si>
-    <t>Parameters.parameter:history</t>
-  </si>
-  <si>
-    <t>history</t>
-  </si>
-  <si>
-    <t>Parameters.parameter:history.id</t>
-  </si>
-  <si>
-    <t>Parameters.parameter:history.extension</t>
-  </si>
-  <si>
-    <t>Parameters.parameter:history.modifierExtension</t>
-  </si>
-  <si>
-    <t>Parameters.parameter:history.name</t>
-  </si>
-  <si>
-    <t>Parameters.parameter:history.value[x]</t>
-  </si>
-  <si>
-    <t>Parameters.parameter:history.resource</t>
-  </si>
-  <si>
-    <t>Parameters.parameter:history.part</t>
-  </si>
-  <si>
-    <t>Parameters.parameter:requestMessageId</t>
-  </si>
-  <si>
-    <t>requestMessageId</t>
-  </si>
-  <si>
-    <t>The messageID coming from the request</t>
-  </si>
-  <si>
-    <t>Parameters.parameter:requestMessageId.id</t>
-  </si>
-  <si>
-    <t>Parameters.parameter:requestMessageId.extension</t>
-  </si>
-  <si>
-    <t>Parameters.parameter:requestMessageId.modifierExtension</t>
-  </si>
-  <si>
-    <t>Parameters.parameter:requestMessageId.name</t>
-  </si>
-  <si>
-    <t>Parameters.parameter:requestMessageId.value[x]</t>
   </si>
   <si>
     <t>Parameters.parameter:requestMessageId.value[x]:valueString</t>
@@ -1088,7 +1048,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL82"/>
+  <dimension ref="A1:AL73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1097,7 +1057,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="62.3203125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="58.44921875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="39.08203125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="18.62890625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="21.21875" customWidth="true" bestFit="true" hidden="true"/>
@@ -3541,7 +3501,7 @@
         <v>113</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>168</v>
+        <v>114</v>
       </c>
       <c r="M23" t="s" s="2">
         <v>115</v>
@@ -3618,7 +3578,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B24" t="s" s="2">
         <v>120</v>
@@ -3724,7 +3684,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>125</v>
@@ -3832,7 +3792,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>133</v>
@@ -3942,7 +3902,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>140</v>
@@ -4048,7 +4008,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>143</v>
@@ -4059,7 +4019,7 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>83</v>
@@ -4074,7 +4034,7 @@
         <v>84</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L28" t="s" s="2">
         <v>145</v>
@@ -4119,14 +4079,16 @@
         <v>74</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="AC28" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="AD28" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>176</v>
+        <v>74</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>143</v>
@@ -4152,26 +4114,24 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="C29" t="s" s="2">
-        <v>178</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>74</v>
@@ -4180,15 +4140,17 @@
         <v>84</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>174</v>
+        <v>149</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>151</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>74</v>
@@ -4237,7 +4199,7 @@
         <v>74</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>75</v>
@@ -4249,7 +4211,7 @@
         <v>147</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>74</v>
@@ -4260,10 +4222,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4286,16 +4248,16 @@
         <v>84</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>149</v>
+        <v>74</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -4345,19 +4307,19 @@
         <v>74</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>147</v>
+        <v>74</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>74</v>
@@ -4368,12 +4330,14 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="C31" s="2"/>
+        <v>111</v>
+      </c>
+      <c r="C31" t="s" s="2">
+        <v>177</v>
+      </c>
       <c r="D31" t="s" s="2">
         <v>74</v>
       </c>
@@ -4382,10 +4346,10 @@
         <v>75</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>74</v>
@@ -4394,17 +4358,15 @@
         <v>84</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>154</v>
+        <v>114</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>156</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>74</v>
@@ -4453,7 +4415,7 @@
         <v>74</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>153</v>
+        <v>111</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>75</v>
@@ -4465,7 +4427,7 @@
         <v>74</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>74</v>
@@ -4476,14 +4438,12 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="C32" t="s" s="2">
-        <v>182</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
         <v>74</v>
       </c>
@@ -4495,22 +4455,22 @@
         <v>83</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>74</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -4561,44 +4521,44 @@
         <v>74</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>119</v>
+        <v>74</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>74</v>
+        <v>126</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>74</v>
@@ -4610,15 +4570,17 @@
         <v>74</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>130</v>
+      </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>74</v>
@@ -4667,19 +4629,19 @@
         <v>74</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>74</v>
@@ -4690,14 +4652,14 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -4710,24 +4672,26 @@
         <v>74</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K34" t="s" s="2">
         <v>127</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="N34" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="O34" s="2"/>
+      <c r="O34" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="P34" t="s" s="2">
         <v>74</v>
       </c>
@@ -4775,7 +4739,7 @@
         <v>74</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>75</v>
@@ -4793,51 +4757,47 @@
         <v>74</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>81</v>
+        <v>139</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>134</v>
+        <v>74</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J35" t="s" s="2">
         <v>84</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>74</v>
       </c>
@@ -4846,7 +4806,7 @@
         <v>74</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>74</v>
+        <v>177</v>
       </c>
       <c r="T35" t="s" s="2">
         <v>74</v>
@@ -4885,33 +4845,33 @@
         <v>74</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>132</v>
+        <v>95</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>139</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -4919,13 +4879,13 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>83</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>74</v>
@@ -4934,13 +4894,13 @@
         <v>84</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>121</v>
+        <v>173</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -4952,7 +4912,7 @@
         <v>74</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>182</v>
+        <v>74</v>
       </c>
       <c r="T36" t="s" s="2">
         <v>74</v>
@@ -4991,16 +4951,16 @@
         <v>74</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>74</v>
+        <v>147</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>95</v>
@@ -5014,10 +4974,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5028,7 +4988,7 @@
         <v>75</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>74</v>
@@ -5040,15 +5000,17 @@
         <v>84</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>188</v>
+        <v>149</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>151</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>74</v>
@@ -5097,7 +5059,7 @@
         <v>74</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>75</v>
@@ -5109,7 +5071,7 @@
         <v>147</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>74</v>
@@ -5120,10 +5082,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5146,16 +5108,16 @@
         <v>84</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>149</v>
+        <v>74</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -5205,19 +5167,19 @@
         <v>74</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>147</v>
+        <v>74</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>74</v>
@@ -5228,12 +5190,14 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="C39" s="2"/>
+        <v>111</v>
+      </c>
+      <c r="C39" t="s" s="2">
+        <v>186</v>
+      </c>
       <c r="D39" t="s" s="2">
         <v>74</v>
       </c>
@@ -5242,10 +5206,10 @@
         <v>75</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>74</v>
@@ -5254,17 +5218,15 @@
         <v>84</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>154</v>
+        <v>187</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>156</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>74</v>
@@ -5313,7 +5275,7 @@
         <v>74</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>153</v>
+        <v>111</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>75</v>
@@ -5325,7 +5287,7 @@
         <v>74</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>74</v>
@@ -5336,14 +5298,12 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="C40" t="s" s="2">
-        <v>192</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
         <v>74</v>
       </c>
@@ -5355,22 +5315,22 @@
         <v>83</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>74</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -5421,44 +5381,44 @@
         <v>74</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>119</v>
+        <v>74</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>74</v>
+        <v>126</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>74</v>
@@ -5470,15 +5430,17 @@
         <v>74</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>130</v>
+      </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>74</v>
@@ -5527,19 +5489,19 @@
         <v>74</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>74</v>
@@ -5550,14 +5512,14 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -5570,24 +5532,26 @@
         <v>74</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K42" t="s" s="2">
         <v>127</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="N42" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="O42" s="2"/>
+      <c r="O42" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="P42" t="s" s="2">
         <v>74</v>
       </c>
@@ -5635,7 +5599,7 @@
         <v>74</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>75</v>
@@ -5653,51 +5617,47 @@
         <v>74</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>81</v>
+        <v>139</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>134</v>
+        <v>74</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J43" t="s" s="2">
         <v>84</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>74</v>
       </c>
@@ -5706,7 +5666,7 @@
         <v>74</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>74</v>
+        <v>186</v>
       </c>
       <c r="T43" t="s" s="2">
         <v>74</v>
@@ -5745,33 +5705,33 @@
         <v>74</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>132</v>
+        <v>95</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>139</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -5779,13 +5739,13 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>83</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>74</v>
@@ -5797,10 +5757,10 @@
         <v>121</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -5812,7 +5772,7 @@
         <v>74</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>192</v>
+        <v>74</v>
       </c>
       <c r="T44" t="s" s="2">
         <v>74</v>
@@ -5839,28 +5799,26 @@
         <v>74</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="AC44" s="2"/>
       <c r="AD44" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>74</v>
+        <v>194</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>74</v>
+        <v>147</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>95</v>
@@ -5874,12 +5832,14 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B45" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="C45" s="2"/>
+      <c r="C45" t="s" s="2">
+        <v>196</v>
+      </c>
       <c r="D45" t="s" s="2">
         <v>74</v>
       </c>
@@ -5891,7 +5851,7 @@
         <v>83</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>74</v>
@@ -5900,7 +5860,7 @@
         <v>84</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>188</v>
+        <v>121</v>
       </c>
       <c r="L45" t="s" s="2">
         <v>145</v>
@@ -5980,7 +5940,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B46" t="s" s="2">
         <v>148</v>
@@ -6088,7 +6048,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B47" t="s" s="2">
         <v>153</v>
@@ -6196,20 +6156,20 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>111</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D48" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>83</v>
@@ -6227,7 +6187,7 @@
         <v>113</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>202</v>
+        <v>114</v>
       </c>
       <c r="M48" t="s" s="2">
         <v>115</v>
@@ -6304,7 +6264,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B49" t="s" s="2">
         <v>120</v>
@@ -6410,7 +6370,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B50" t="s" s="2">
         <v>125</v>
@@ -6518,7 +6478,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B51" t="s" s="2">
         <v>133</v>
@@ -6628,7 +6588,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B52" t="s" s="2">
         <v>140</v>
@@ -6672,7 +6632,7 @@
         <v>74</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="T52" t="s" s="2">
         <v>74</v>
@@ -6734,7 +6694,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>143</v>
@@ -6745,7 +6705,7 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>83</v>
@@ -6760,7 +6720,7 @@
         <v>84</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>121</v>
+        <v>206</v>
       </c>
       <c r="L53" t="s" s="2">
         <v>145</v>
@@ -6805,14 +6765,14 @@
         <v>74</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="AC53" s="2"/>
       <c r="AD53" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>143</v>
@@ -6838,20 +6798,20 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B54" t="s" s="2">
         <v>143</v>
       </c>
       <c r="C54" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D54" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>83</v>
@@ -6866,7 +6826,7 @@
         <v>84</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>121</v>
+        <v>206</v>
       </c>
       <c r="L54" t="s" s="2">
         <v>145</v>
@@ -6946,7 +6906,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B55" t="s" s="2">
         <v>148</v>
@@ -7054,7 +7014,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B56" t="s" s="2">
         <v>153</v>
@@ -7162,20 +7122,20 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B57" t="s" s="2">
         <v>111</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D57" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>83</v>
@@ -7270,7 +7230,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>120</v>
@@ -7376,7 +7336,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B59" t="s" s="2">
         <v>125</v>
@@ -7484,7 +7444,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B60" t="s" s="2">
         <v>133</v>
@@ -7594,7 +7554,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B61" t="s" s="2">
         <v>140</v>
@@ -7638,7 +7598,7 @@
         <v>74</v>
       </c>
       <c r="S61" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="T61" t="s" s="2">
         <v>74</v>
@@ -7700,7 +7660,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B62" t="s" s="2">
         <v>143</v>
@@ -7711,7 +7671,7 @@
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>83</v>
@@ -7726,7 +7686,7 @@
         <v>84</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="L62" t="s" s="2">
         <v>145</v>
@@ -7771,14 +7731,14 @@
         <v>74</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="AC62" s="2"/>
       <c r="AD62" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>143</v>
@@ -7804,20 +7764,20 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>143</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="D63" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>83</v>
@@ -7832,7 +7792,7 @@
         <v>84</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="L63" t="s" s="2">
         <v>145</v>
@@ -7912,7 +7872,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B64" t="s" s="2">
         <v>148</v>
@@ -8020,7 +7980,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B65" t="s" s="2">
         <v>153</v>
@@ -8128,13 +8088,13 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B66" t="s" s="2">
         <v>111</v>
       </c>
       <c r="C66" t="s" s="2">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D66" t="s" s="2">
         <v>74</v>
@@ -8236,7 +8196,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B67" t="s" s="2">
         <v>120</v>
@@ -8342,7 +8302,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B68" t="s" s="2">
         <v>125</v>
@@ -8450,7 +8410,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B69" t="s" s="2">
         <v>133</v>
@@ -8560,7 +8520,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B70" t="s" s="2">
         <v>140</v>
@@ -8604,7 +8564,7 @@
         <v>74</v>
       </c>
       <c r="S70" t="s" s="2">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="T70" t="s" s="2">
         <v>74</v>
@@ -8666,7 +8626,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B71" t="s" s="2">
         <v>143</v>
@@ -8680,7 +8640,7 @@
         <v>75</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>74</v>
@@ -8692,7 +8652,7 @@
         <v>84</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>219</v>
+        <v>144</v>
       </c>
       <c r="L71" t="s" s="2">
         <v>145</v>
@@ -8737,14 +8697,16 @@
         <v>74</v>
       </c>
       <c r="AB71" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="AC71" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="AD71" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>176</v>
+        <v>74</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>143</v>
@@ -8770,20 +8732,18 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="C72" t="s" s="2">
-        <v>221</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
         <v>74</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>83</v>
@@ -8798,15 +8758,17 @@
         <v>84</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="N72" s="2"/>
+        <v>151</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>74</v>
@@ -8855,7 +8817,7 @@
         <v>74</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>75</v>
@@ -8867,7 +8829,7 @@
         <v>147</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>74</v>
@@ -8878,10 +8840,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -8904,16 +8866,16 @@
         <v>84</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>149</v>
+        <v>74</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -8963,19 +8925,19 @@
         <v>74</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>147</v>
+        <v>74</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>74</v>
@@ -8984,976 +8946,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="74" hidden="true">
-      <c r="A74" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="B74" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="C74" s="2"/>
-      <c r="D74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E74" s="2"/>
-      <c r="F74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J74" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="K74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="O74" s="2"/>
-      <c r="P74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q74" s="2"/>
-      <c r="R74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF74" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="AG74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="75" hidden="true">
-      <c r="A75" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="B75" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="C75" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="D75" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E75" s="2"/>
-      <c r="F75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G75" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="H75" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="I75" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J75" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="K75" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="N75" s="2"/>
-      <c r="O75" s="2"/>
-      <c r="P75" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q75" s="2"/>
-      <c r="R75" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S75" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T75" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U75" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V75" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W75" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X75" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y75" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z75" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA75" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD75" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE75" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF75" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="AG75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="76" hidden="true">
-      <c r="A76" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="B76" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="C76" s="2"/>
-      <c r="D76" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E76" s="2"/>
-      <c r="F76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G76" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="H76" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J76" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="K76" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="N76" s="2"/>
-      <c r="O76" s="2"/>
-      <c r="P76" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q76" s="2"/>
-      <c r="R76" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S76" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T76" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U76" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V76" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W76" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X76" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y76" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z76" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE76" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF76" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="77" hidden="true">
-      <c r="A77" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="B77" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="C77" s="2"/>
-      <c r="D77" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="E77" s="2"/>
-      <c r="F77" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H77" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J77" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="K77" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="O77" s="2"/>
-      <c r="P77" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q77" s="2"/>
-      <c r="R77" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S77" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T77" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U77" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V77" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W77" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X77" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y77" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z77" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE77" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF77" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="78" hidden="true">
-      <c r="A78" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="B78" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="C78" s="2"/>
-      <c r="D78" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="E78" s="2"/>
-      <c r="F78" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I78" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="J78" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="K78" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="O78" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="P78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q78" s="2"/>
-      <c r="R78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF78" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AG78" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="79" hidden="true">
-      <c r="A79" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="B79" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="C79" s="2"/>
-      <c r="D79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E79" s="2"/>
-      <c r="F79" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="G79" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="H79" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="I79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J79" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="K79" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="N79" s="2"/>
-      <c r="O79" s="2"/>
-      <c r="P79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q79" s="2"/>
-      <c r="R79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S79" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="T79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF79" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AG79" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH79" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="80" hidden="true">
-      <c r="A80" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="B80" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="C80" s="2"/>
-      <c r="D80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E80" s="2"/>
-      <c r="F80" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G80" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J80" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="K80" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="N80" s="2"/>
-      <c r="O80" s="2"/>
-      <c r="P80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q80" s="2"/>
-      <c r="R80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF80" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="AG80" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH80" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI80" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="AJ80" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AK80" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL80" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="81" hidden="true">
-      <c r="A81" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="B81" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="C81" s="2"/>
-      <c r="D81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E81" s="2"/>
-      <c r="F81" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="G81" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="H81" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="I81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J81" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="K81" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="O81" s="2"/>
-      <c r="P81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q81" s="2"/>
-      <c r="R81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF81" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="AG81" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH81" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AI81" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="AJ81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL81" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="82" hidden="true">
-      <c r="A82" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="B82" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="C82" s="2"/>
-      <c r="D82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E82" s="2"/>
-      <c r="F82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J82" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="K82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="O82" s="2"/>
-      <c r="P82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q82" s="2"/>
-      <c r="R82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF82" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="AG82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ82" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AK82" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL82" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:AL82">
+  <autoFilter ref="A1:AL73">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9963,7 +8957,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI81">
+  <conditionalFormatting sqref="A2:AI72">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/release-branch/StructureDefinition-bc-metadata-parameters-out.xlsx
+++ b/release-branch/StructureDefinition-bc-metadata-parameters-out.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-01T20:52:52+00:00</t>
+    <t>2024-10-10T23:13:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/release-branch/StructureDefinition-bc-metadata-parameters-out.xlsx
+++ b/release-branch/StructureDefinition-bc-metadata-parameters-out.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-10T23:13:09+00:00</t>
+    <t>2024-10-11T20:59:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/release-branch/StructureDefinition-bc-metadata-parameters-out.xlsx
+++ b/release-branch/StructureDefinition-bc-metadata-parameters-out.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-11T20:59:30+00:00</t>
+    <t>2024-10-11T21:12:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/release-branch/StructureDefinition-bc-metadata-parameters-out.xlsx
+++ b/release-branch/StructureDefinition-bc-metadata-parameters-out.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-11T21:12:40+00:00</t>
+    <t>2024-10-11T22:07:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/release-branch/StructureDefinition-bc-metadata-parameters-out.xlsx
+++ b/release-branch/StructureDefinition-bc-metadata-parameters-out.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-11T22:07:31+00:00</t>
+    <t>2024-10-11T22:13:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/release-branch/StructureDefinition-bc-metadata-parameters-out.xlsx
+++ b/release-branch/StructureDefinition-bc-metadata-parameters-out.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-11T22:13:26+00:00</t>
+    <t>2024-10-15T18:43:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/release-branch/StructureDefinition-bc-metadata-parameters-out.xlsx
+++ b/release-branch/StructureDefinition-bc-metadata-parameters-out.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-15T18:43:47+00:00</t>
+    <t>2024-10-23T18:46:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/release-branch/StructureDefinition-bc-metadata-parameters-out.xlsx
+++ b/release-branch/StructureDefinition-bc-metadata-parameters-out.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-23T18:46:58+00:00</t>
+    <t>2024-10-24T18:05:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/release-branch/StructureDefinition-bc-metadata-parameters-out.xlsx
+++ b/release-branch/StructureDefinition-bc-metadata-parameters-out.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-24T18:05:53+00:00</t>
+    <t>2024-10-31T18:32:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/release-branch/StructureDefinition-bc-metadata-parameters-out.xlsx
+++ b/release-branch/StructureDefinition-bc-metadata-parameters-out.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-31T18:32:51+00:00</t>
+    <t>2024-12-09T22:50:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/release-branch/StructureDefinition-bc-metadata-parameters-out.xlsx
+++ b/release-branch/StructureDefinition-bc-metadata-parameters-out.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-09T22:50:07+00:00</t>
+    <t>2024-12-09T22:59:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/release-branch/StructureDefinition-bc-metadata-parameters-out.xlsx
+++ b/release-branch/StructureDefinition-bc-metadata-parameters-out.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-09T22:59:04+00:00</t>
+    <t>2024-12-09T23:04:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/release-branch/StructureDefinition-bc-metadata-parameters-out.xlsx
+++ b/release-branch/StructureDefinition-bc-metadata-parameters-out.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-09T23:04:44+00:00</t>
+    <t>2025-01-11T00:36:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/release-branch/StructureDefinition-bc-metadata-parameters-out.xlsx
+++ b/release-branch/StructureDefinition-bc-metadata-parameters-out.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-11T00:36:26+00:00</t>
+    <t>2025-01-17T23:10:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/release-branch/StructureDefinition-bc-metadata-parameters-out.xlsx
+++ b/release-branch/StructureDefinition-bc-metadata-parameters-out.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-17T23:10:16+00:00</t>
+    <t>2025-02-07T23:01:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/release-branch/StructureDefinition-bc-metadata-parameters-out.xlsx
+++ b/release-branch/StructureDefinition-bc-metadata-parameters-out.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-07T23:01:35+00:00</t>
+    <t>2025-05-12T18:40:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1057,15 +1057,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="58.44921875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="39.08203125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="18.62890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="21.21875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="50.109375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="33.50390625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="15.97265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="18.19140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1076,24 +1076,24 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="21.57421875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="35.72265625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="45.6484375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="18.49609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="30.625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="39.13671875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="28.1484375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="24.98046875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="24.1328125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="21.4140625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/release-branch/StructureDefinition-bc-metadata-parameters-out.xlsx
+++ b/release-branch/StructureDefinition-bc-metadata-parameters-out.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-12T18:40:48+00:00</t>
+    <t>2025-05-29T22:30:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/release-branch/StructureDefinition-bc-metadata-parameters-out.xlsx
+++ b/release-branch/StructureDefinition-bc-metadata-parameters-out.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-29T22:30:32+00:00</t>
+    <t>2025-08-19T23:36:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/release-branch/StructureDefinition-bc-metadata-parameters-out.xlsx
+++ b/release-branch/StructureDefinition-bc-metadata-parameters-out.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-19T23:36:05+00:00</t>
+    <t>2025-08-27T22:30:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
